--- a/设备清单.xlsx
+++ b/设备清单.xlsx
@@ -12,7 +12,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+  <si>
+    <t>信息系统密码应用方案设备清单</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>产品型号</t>
+  </si>
+  <si>
+    <t>功能说明</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>配置</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>质保</t>
+  </si>
+  <si>
+    <t>单价(万元)</t>
+  </si>
+  <si>
+    <t>总价(万元)</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
   <si>
     <t>1</t>
   </si>
@@ -48,10 +90,22 @@
 最大并发连接数≥5000</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>台</t>
   </si>
   <si>
     <t>提供三年免费升级维保(超出维保期，维保期之后的维保费用为签订合同金额的12%）</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>总价</t>
+  </si>
+  <si>
+    <t>合计</t>
   </si>
 </sst>
 </file>
@@ -59,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -67,16 +121,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="黑体"/>
+      <sz val="20.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="黑体"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -84,112 +176,466 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="18.0" customWidth="true"/>
+    <col min="5" max="5" width="70.0" customWidth="true"/>
+    <col min="7" max="7" width="25.0" customWidth="true"/>
+    <col min="10" max="10" width="25.0" customWidth="true"/>
+    <col min="13" max="13" width="20.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s" s="2">
         <v>8</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A7:K7"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>